--- a/Sprint_3_Backlog.xlsx
+++ b/Sprint_3_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>User story</t>
   </si>
@@ -54,18 +54,12 @@
     <t>The system should notify external entities of new companies and send company documents</t>
   </si>
   <si>
-    <t>The user should be able to view the website in English and in Arabic</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Investor should receive an Invoice by mail upon paying fees </t>
   </si>
   <si>
     <t>coordinate with Ramy</t>
   </si>
   <si>
-    <t>Function that changes local variable from 0 to 1, ask more about this</t>
-  </si>
-  <si>
     <t>Attach documents</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>The Investor should receive automated emails whenever the Case changes status</t>
   </si>
   <si>
-    <t xml:space="preserve">Generating Form UI and Schema from JSON </t>
-  </si>
-  <si>
     <t>Ramy&amp;Fady</t>
   </si>
   <si>
@@ -168,13 +159,16 @@
     <t>As an Admin I should be able to see number of completed cases of a lawyer/reviewer</t>
   </si>
   <si>
-    <t>As an Admin I should be able to see avg number of completed cases per week of a lawyer/reviewer</t>
-  </si>
-  <si>
     <t>As a staff member I should be able to view a leaderboard of who completed most cases</t>
   </si>
   <si>
     <t xml:space="preserve"> Monica</t>
+  </si>
+  <si>
+    <t>As an Investor I should be able to join the chat room to ask questions</t>
+  </si>
+  <si>
+    <t>Super admin can register and delete other admins</t>
   </si>
 </sst>
 </file>
@@ -558,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -628,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -648,13 +642,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -671,16 +665,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -691,19 +685,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -711,22 +705,19 @@
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -734,380 +725,360 @@
         <v>1.6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="4">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
